--- a/_DS-PT-2 _ ISA (2).xlsx
+++ b/_DS-PT-2 _ ISA (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91939\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970358E5-F276-4203-A41D-32C1E665F2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B9AA72-A666-4546-890A-80097ABFA4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="685">
   <si>
     <t>Week   = 3 weeks</t>
   </si>
@@ -2066,6 +2066,55 @@
   </si>
   <si>
     <t>in, in not</t>
+  </si>
+  <si>
+    <t>To add an item to a list in Python, use the append() method.</t>
+  </si>
+  <si>
+    <t>remove(): my_list.remove(item_to_remove),  Using del: del my_list[index_to_remove]</t>
+  </si>
+  <si>
+    <t>list(), append, insert, del, pop</t>
+  </si>
+  <si>
+    <t>Replace ClassName, method_name, arguments, and comments with the actual names and implementation details.</t>
+  </si>
+  <si>
+    <t>Use the class name followed by parentheses.</t>
+  </si>
+  <si>
+    <t>The __init__() function is called when an object is created and used to initialize its attributes.</t>
+  </si>
+  <si>
+    <t>Object methods are functions that are defined inside a class and can access and modify the object's attributes.</t>
+  </si>
+  <si>
+    <t>The self parameter is used as a reference to the instance of a class, allowing the instance to access its own attributes and methods.</t>
+  </si>
+  <si>
+    <t>Use dot notation to access and modify object attributes, like this: object.attribute = new_value</t>
+  </si>
+  <si>
+    <t>del keyword followed by the object's name</t>
+  </si>
+  <si>
+    <t>This will allow ChildClass to inherit all of the attributes and methods of ParentClass.</t>
+  </si>
+  <si>
+    <t>the class keyword followed by the child class name and the parent class name in parentheses, then define the child class's attributes and methods.</t>
+  </si>
+  <si>
+    <t>you can use the super() function to access the parent class and then call its property setter method with the value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use the super() function to call the __init__() method of the parent class, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The super() function can be used to call a method in a parent class from a subclass.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To add a method to a class in one line in Python, you can use a lambda function to define the method and then assign it to the class. </t>
   </si>
 </sst>
 </file>
@@ -2454,6 +2503,15 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2463,15 +2521,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2692,8 +2741,8 @@
   </sheetPr>
   <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D11" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2731,7 +2780,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="47">
+      <c r="A2" s="50">
         <v>1</v>
       </c>
       <c r="B2" s="4">
@@ -2753,7 +2802,7 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2767,7 +2816,7 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="48"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2781,7 +2830,7 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="48"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2795,7 +2844,7 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="48"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2809,7 +2858,7 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="48"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
@@ -2825,7 +2874,7 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="48"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2839,7 +2888,7 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="48"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -2853,7 +2902,7 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="48"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
@@ -2869,7 +2918,7 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="48"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2883,7 +2932,7 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="48"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2897,7 +2946,7 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="48"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2911,7 +2960,7 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="48"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -2925,7 +2974,7 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="48"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2939,7 +2988,7 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="48"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="4">
         <v>2</v>
       </c>
@@ -2957,7 +3006,7 @@
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="48"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -2971,7 +3020,7 @@
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="48"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2985,7 +3034,7 @@
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="48"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2999,7 +3048,7 @@
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="15.5">
-      <c r="A20" s="48"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -3013,21 +3062,21 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" ht="15.5">
-      <c r="A21" s="48"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="47" t="s">
         <v>668</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="15.5">
-      <c r="A22" s="48"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -3041,7 +3090,7 @@
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="15.5">
-      <c r="A23" s="48"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
@@ -3057,21 +3106,21 @@
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="15.5">
-      <c r="A24" s="48"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="53" t="s">
+      <c r="F24" s="48" t="s">
         <v>617</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="15.5">
-      <c r="A25" s="48"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -3085,7 +3134,7 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" ht="15.5">
-      <c r="A26" s="49"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -3099,7 +3148,7 @@
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="15.5">
-      <c r="A27" s="47"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
@@ -3115,7 +3164,7 @@
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" ht="15.5">
-      <c r="A28" s="48"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -3129,7 +3178,7 @@
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" ht="15.5">
-      <c r="A29" s="48"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -3143,7 +3192,7 @@
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" ht="15.5">
-      <c r="A30" s="48"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -3157,7 +3206,7 @@
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" ht="15.5">
-      <c r="A31" s="48"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -3171,7 +3220,7 @@
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" ht="15.5">
-      <c r="A32" s="48"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="4">
         <v>3</v>
       </c>
@@ -3189,7 +3238,7 @@
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" ht="15.5">
-      <c r="A33" s="48"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
@@ -3205,7 +3254,7 @@
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" ht="15.5">
-      <c r="A34" s="48"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -3219,7 +3268,7 @@
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" ht="15.5">
-      <c r="A35" s="48"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -3233,7 +3282,7 @@
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" ht="15.5">
-      <c r="A36" s="48"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -3247,7 +3296,7 @@
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" ht="15.5">
-      <c r="A37" s="48"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
@@ -3263,7 +3312,7 @@
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" ht="15.5">
-      <c r="A38" s="48"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -3277,7 +3326,7 @@
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" ht="15.5">
-      <c r="A39" s="48"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -3291,7 +3340,7 @@
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" ht="15.5">
-      <c r="A40" s="48"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -3305,7 +3354,7 @@
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" ht="15.5">
-      <c r="A41" s="48"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
@@ -3321,7 +3370,7 @@
       <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8" ht="15.5">
-      <c r="A42" s="48"/>
+      <c r="A42" s="51"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -3335,7 +3384,7 @@
       <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:8" ht="15.5">
-      <c r="A43" s="48"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -3349,7 +3398,7 @@
       <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:8" ht="15.5">
-      <c r="A44" s="49"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -3857,7 +3906,7 @@
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="54" t="s">
+      <c r="E78" s="49" t="s">
         <v>99</v>
       </c>
       <c r="F78" s="5" t="s">
@@ -3922,7 +3971,9 @@
       <c r="E82" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F82" s="5"/>
+      <c r="F82" s="5" t="s">
+        <v>669</v>
+      </c>
       <c r="G82" s="5"/>
       <c r="H82" s="4"/>
     </row>
@@ -3934,7 +3985,9 @@
       <c r="E83" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F83" s="5"/>
+      <c r="F83" s="45" t="s">
+        <v>670</v>
+      </c>
       <c r="G83" s="5"/>
       <c r="H83" s="4"/>
     </row>
@@ -3946,7 +3999,9 @@
       <c r="E84" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F84" s="5"/>
+      <c r="F84" s="45" t="s">
+        <v>671</v>
+      </c>
       <c r="G84" s="5"/>
       <c r="H84" s="4"/>
     </row>
@@ -3960,7 +4015,9 @@
       <c r="E85" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F85" s="5"/>
+      <c r="F85" s="5" t="s">
+        <v>672</v>
+      </c>
       <c r="G85" s="5"/>
       <c r="H85" s="4"/>
     </row>
@@ -3972,7 +4029,9 @@
       <c r="E86" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F86" s="5"/>
+      <c r="F86" s="5" t="s">
+        <v>673</v>
+      </c>
       <c r="G86" s="5"/>
       <c r="H86" s="4"/>
     </row>
@@ -3984,7 +4043,9 @@
       <c r="E87" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F87" s="5"/>
+      <c r="F87" s="5" t="s">
+        <v>674</v>
+      </c>
       <c r="G87" s="5"/>
       <c r="H87" s="4"/>
     </row>
@@ -3996,7 +4057,9 @@
       <c r="E88" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F88" s="5"/>
+      <c r="F88" s="5" t="s">
+        <v>675</v>
+      </c>
       <c r="G88" s="5"/>
       <c r="H88" s="4"/>
     </row>
@@ -4008,7 +4071,9 @@
       <c r="E89" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F89" s="5"/>
+      <c r="F89" s="5" t="s">
+        <v>676</v>
+      </c>
       <c r="G89" s="5"/>
       <c r="H89" s="4"/>
     </row>
@@ -4020,7 +4085,9 @@
       <c r="E90" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F90" s="5"/>
+      <c r="F90" s="5" t="s">
+        <v>677</v>
+      </c>
       <c r="G90" s="5"/>
       <c r="H90" s="4"/>
     </row>
@@ -4032,7 +4099,9 @@
       <c r="E91" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F91" s="5"/>
+      <c r="F91" s="4" t="s">
+        <v>678</v>
+      </c>
       <c r="G91" s="5"/>
       <c r="H91" s="4"/>
     </row>
@@ -4048,7 +4117,9 @@
       <c r="E92" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F92" s="5"/>
+      <c r="F92" s="5" t="s">
+        <v>679</v>
+      </c>
       <c r="G92" s="5"/>
       <c r="H92" s="4"/>
     </row>
@@ -4057,10 +4128,12 @@
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
-      <c r="E93" s="4" t="s">
+      <c r="E93" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="F93" s="5"/>
+      <c r="F93" s="5" t="s">
+        <v>680</v>
+      </c>
       <c r="G93" s="5"/>
       <c r="H93" s="4"/>
     </row>
@@ -4072,7 +4145,9 @@
       <c r="E94" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F94" s="5"/>
+      <c r="F94" s="5" t="s">
+        <v>681</v>
+      </c>
       <c r="G94" s="5"/>
       <c r="H94" s="4"/>
     </row>
@@ -4081,22 +4156,26 @@
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
-      <c r="E95" s="4" t="s">
+      <c r="E95" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="F95" s="5"/>
+      <c r="F95" s="5" t="s">
+        <v>682</v>
+      </c>
       <c r="G95" s="5"/>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="1:8" ht="15.5">
+    <row r="96" spans="1:8" ht="46.5">
       <c r="A96" s="8"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
-      <c r="E96" s="4" t="s">
+      <c r="E96" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="F96" s="5"/>
+      <c r="F96" s="49" t="s">
+        <v>683</v>
+      </c>
       <c r="G96" s="5"/>
       <c r="H96" s="4"/>
     </row>
@@ -4108,7 +4187,9 @@
       <c r="E97" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F97" s="5"/>
+      <c r="F97" s="5" t="s">
+        <v>684</v>
+      </c>
       <c r="G97" s="5"/>
       <c r="H97" s="4"/>
     </row>
@@ -4647,12 +4728,12 @@
       <c r="H138" s="4"/>
     </row>
     <row r="139" spans="1:8" ht="12.5">
-      <c r="A139" s="50" t="s">
+      <c r="A139" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="B139" s="51"/>
-      <c r="C139" s="51"/>
-      <c r="D139" s="51"/>
+      <c r="B139" s="54"/>
+      <c r="C139" s="54"/>
+      <c r="D139" s="54"/>
       <c r="E139" s="15"/>
       <c r="F139" s="15"/>
       <c r="G139" s="15"/>

--- a/_DS-PT-2 _ ISA (2).xlsx
+++ b/_DS-PT-2 _ ISA (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91939\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B9AA72-A666-4546-890A-80097ABFA4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B7A427-6C09-4260-AACC-BB49855BF72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="726">
   <si>
     <t>Week   = 3 weeks</t>
   </si>
@@ -375,9 +375,6 @@
   </si>
   <si>
     <t>Add Properties</t>
-  </si>
-  <si>
-    <t>super function</t>
   </si>
   <si>
     <t>Add methods</t>
@@ -554,9 +551,6 @@
 Inorder Tree Traversals
 Pre-order Tree Traversals
 Post-order Tree Traversals</t>
-  </si>
-  <si>
-    <t>AVL tree</t>
   </si>
   <si>
     <t>Spanning tree</t>
@@ -2116,12 +2110,203 @@
   <si>
     <t xml:space="preserve">To add a method to a class in one line in Python, you can use a lambda function to define the method and then assign it to the class. </t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Iterators in Python provide a way to access elements one at a time from a collection or sequence.</t>
+  </si>
+  <si>
+    <t>An iterable is an object that can be looped over, while an iterator is an object that keeps track of the current state during iteration over an iterable.</t>
+  </si>
+  <si>
+    <t>You can loop through an iterator in Python using a for loop</t>
+  </si>
+  <si>
+    <t>You can create an iterator in Python by implementing the __iter__() and __next__() methods within a class.</t>
+  </si>
+  <si>
+    <t>You can stop an iterator in Python by using the StopIteration exception.</t>
+  </si>
+  <si>
+    <t>Local scope in Python refers to the region or block where a variable is defined and can be accessed.</t>
+  </si>
+  <si>
+    <t>Global scope in Python refers to the outermost scope or module-level scope where variables are defined and can be accessed throughout the program.</t>
+  </si>
+  <si>
+    <t>A function inside another function is called a nested function in Python.</t>
+  </si>
+  <si>
+    <t>The global keyword in Python is used to declare a variable as global, allowing it to be accessed and modified within both the local and global scopes.</t>
+  </si>
+  <si>
+    <t>To create a module in Python, you can define functions, classes, and variables in a .py file that can be imported and used in other Python programs.</t>
+  </si>
+  <si>
+    <t>To use a module in Python, you can import it using the import statement and then access its functions, classes, or variables using dot notation.</t>
+  </si>
+  <si>
+    <t>To create a variable in a module in Python, simply define the variable at the module level within a .py file.</t>
+  </si>
+  <si>
+    <t>Built-in modules in Python are pre-existing modules that are available for use without the need for any additional installation or setup.</t>
+  </si>
+  <si>
+    <t>The dir() function in Python is used to list all the names (variables, functions, classes, etc.) in the current scope or a specified object.</t>
+  </si>
+  <si>
+    <t>To import a module in Python, you can use the import statement followed by the module name.</t>
+  </si>
+  <si>
+    <t>try-except statement in Python is used for exception handling, allowing you to catch and handle specific errors or exceptions that may occur during program execution.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD1D5DB"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> statement in Python is used in conjunction </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>finally</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD1D5DB"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> statement in Python is used in conjunction with the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>try-except</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD1D5DB"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> statement to specify a block of code that should be executed regardless of whether an exception is raised or not.</t>
+    </r>
+  </si>
+  <si>
+    <t>Regex functions in Python are used for working with regular expressions, allowing you to search, match, replace, or split strings based on specific patterns.</t>
+  </si>
+  <si>
+    <t>Lambda functions in Python are used for creating small, anonymous functions without a formal def statement, providing a concise way to define and use functions inline.</t>
+  </si>
+  <si>
+    <t>Introduction to DS: Organization
+Types of DS: Arrays, Lists, Tuples, Sets, Dictionaries, Stacks, Queues, Linked Lists
+Why learn algorithms? Efficiency
+Asymptotic Notations: Complexity
+Master Theorem: Analysis
+Divide and Conquer Algorithm: Problem-solving</t>
+  </si>
+  <si>
+    <t>Greedy algorithms in Python are problem-solving approaches that make locally optimal choices at each step, aiming to find the global optimum solution.</t>
+  </si>
+  <si>
+    <t>Dynamic programming in Python is a problem-solving technique that breaks down complex problems into overlapping subproblems and stores the solutions to those subproblems to avoid redundant computations.</t>
+  </si>
+  <si>
+    <t>Bubble Sort: Comparison                                                              Selection Sort: Selection                                                    Insertion Sort: Insertion                                                           Merge Sort: Divide-and-Conquer                                       Quicksort: Partitioning                                                       Heap Sort: Heap                                                                        Linear Search: Sequential                                                        Binary Search: Divide-and-Conquer</t>
+  </si>
+  <si>
+    <t>Stacks in Python are data structures that follow the Last-In-First-Out (LIFO) principle, while the infix to prefix implementation is a process of converting an infix expression to its equivalent prefix form using a stack for operand and operator manipulation.</t>
+  </si>
+  <si>
+    <t>Queues in Python are data structures that follow the First-In-First-Out (FIFO) principle, and the types of queues include Circular Queue, Priority Queue, and Deque (Double-ended Queue), each with specific characteristics and use cases.</t>
+  </si>
+  <si>
+    <t>To create a linked list in Python, you can define a class representing a node, where each node contains a value and a reference to the next node in the list.</t>
+  </si>
+  <si>
+    <t>Adding Data to a linked list: Append Deleting Data from a linked list: Remove</t>
+  </si>
+  <si>
+    <t>Types of linked lists in Python include Singly Linked List, Doubly Linked List, and Circular Linked List, each with specific characteristics and use cases.</t>
+  </si>
+  <si>
+    <t>A singly linked list in Python is a type of linked list where each node contains a value and a reference to the next node, forming a unidirectional sequence.</t>
+  </si>
+  <si>
+    <t>A doubly linked list in Python is a type of linked list where each node contains a value, a reference to the next node, and a reference to the previous node, allowing for bidirectional traversal.</t>
+  </si>
+  <si>
+    <t>A circular linked list in Python is a type of linked list where the last node points back to the first node, forming a circular structure and allowing for continuous traversal.</t>
+  </si>
+  <si>
+    <t>A hash table in Python is a data structure that uses hash functions to store and retrieve key-value pairs efficiently, providing constant-time average-case complexity for operations such as insertion, deletion, and lookup.</t>
+  </si>
+  <si>
+    <t>Non-linear data structures in Python are data structures that do not follow a sequential or linear arrangement, such as trees and graphs, allowing for more complex relationships and connections between elements.</t>
+  </si>
+  <si>
+    <t>A tree data structure is a hierarchical structure consisting of nodes connected by edges.</t>
+  </si>
+  <si>
+    <t>To create a binary tree in Python, you can define a Node class with a value and left/right child attributes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessing Data in a Binary Tree: You can access the data in a binary tree by accessing the value attribute of each node.       Inorder Tree Traversal: Traverse the left subtree, visit the root node, and then traverse the right subtree.    Pre-order Tree Traversal: Visit the root node, traverse the left subtree, and then traverse the right subtree.   Post-order Tree Traversal: Traverse the left subtree, traverse the right subtree, and then visit the root node.
+</t>
+  </si>
+  <si>
+    <t>AVL TREE</t>
+  </si>
+  <si>
+    <t>An AVL tree is a self-balancing binary search tree where the heights of the left and right subtrees of any node differ by at most 1.</t>
+  </si>
+  <si>
+    <t>A spanning tree of a graph is a tree that includes all the vertices of the graph with the minimum possible number of edges.</t>
+  </si>
+  <si>
+    <t>A heap is a specialized tree-based data structure that satisfies the heap property, where the key of each parent node is either greater than or equal to (in a max heap) or less than or equal to (in a min heap) the keys of its children.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph Introduction: A graph is a non-linear data structure consisting of vertices (nodes) connected by edges (links).       Graph Data Structure: A way of representing a graph using vertices and edges.            Spanning Tree: A subgraph of a graph that includes all the vertices and is a tree (acyclic connected graph).      Strongly Connected Components: Subgraphs of a directed graph where there is a path between any two vertices in the subgraph.       
+Adjacency Matrix: A square matrix representing a graph where the elements indicate the presence or absence of edges between vertices.        Adjacency List: A collection of lists or arrays representing a graph, where each list represents the vertices adjacent to a particular vertex.        DFS Algorithm: Depth-first search algorithm explores a graph by visiting vertices and recursively exploring each unvisited adjacent vertex before backtracking.                           Breadth-first Search: A graph traversal algorithm that explores the graph by visiting all the vertices at the same level before moving to the next level.                                                     </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2210,6 +2395,24 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8.75"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFD1D5DB"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2383,7 +2586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2512,6 +2715,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2521,6 +2726,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2739,10 +2956,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" topLeftCell="D135" workbookViewId="0">
+      <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2780,7 +2997,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="50">
+      <c r="A2" s="52">
         <v>1</v>
       </c>
       <c r="B2" s="4">
@@ -2796,13 +3013,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="51"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2810,13 +3027,13 @@
         <v>11</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="51"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2824,13 +3041,13 @@
         <v>12</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="51"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2838,13 +3055,13 @@
         <v>13</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="51"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2852,13 +3069,13 @@
         <v>14</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="51"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
@@ -2868,13 +3085,13 @@
         <v>16</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="51"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2882,13 +3099,13 @@
         <v>17</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="51"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -2896,13 +3113,13 @@
         <v>18</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="51"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
@@ -2912,13 +3129,13 @@
         <v>20</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="51"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2926,13 +3143,13 @@
         <v>21</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="51"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2940,13 +3157,13 @@
         <v>22</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="51"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2954,13 +3171,13 @@
         <v>23</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="51"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -2968,13 +3185,13 @@
         <v>24</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="51"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2982,13 +3199,13 @@
         <v>25</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="51"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4">
         <v>2</v>
       </c>
@@ -3000,13 +3217,13 @@
         <v>27</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="51"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -3014,13 +3231,13 @@
         <v>28</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="51"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -3028,13 +3245,13 @@
         <v>29</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="51"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -3042,13 +3259,13 @@
         <v>30</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="15.5">
-      <c r="A20" s="51"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -3056,13 +3273,13 @@
         <v>31</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" ht="15.5">
-      <c r="A21" s="51"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -3070,13 +3287,13 @@
         <v>32</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="15.5">
-      <c r="A22" s="51"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -3084,13 +3301,13 @@
         <v>33</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="15.5">
-      <c r="A23" s="51"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
@@ -3100,13 +3317,13 @@
         <v>35</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="15.5">
-      <c r="A24" s="51"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -3114,13 +3331,13 @@
         <v>36</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="15.5">
-      <c r="A25" s="51"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -3128,13 +3345,13 @@
         <v>37</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" ht="15.5">
-      <c r="A26" s="52"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -3142,13 +3359,13 @@
         <v>38</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="15.5">
-      <c r="A27" s="50"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
@@ -3158,13 +3375,13 @@
         <v>40</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" ht="15.5">
-      <c r="A28" s="51"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -3172,13 +3389,13 @@
         <v>41</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" ht="15.5">
-      <c r="A29" s="51"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -3186,13 +3403,13 @@
         <v>42</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" ht="15.5">
-      <c r="A30" s="51"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -3200,13 +3417,13 @@
         <v>43</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" ht="15.5">
-      <c r="A31" s="51"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -3214,13 +3431,13 @@
         <v>44</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" ht="15.5">
-      <c r="A32" s="51"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4">
         <v>3</v>
       </c>
@@ -3232,13 +3449,13 @@
         <v>45</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" ht="15.5">
-      <c r="A33" s="51"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
@@ -3248,13 +3465,13 @@
         <v>47</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" ht="15.5">
-      <c r="A34" s="51"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -3262,13 +3479,13 @@
         <v>48</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" ht="15.5">
-      <c r="A35" s="51"/>
+      <c r="A35" s="53"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -3276,13 +3493,13 @@
         <v>49</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" ht="15.5">
-      <c r="A36" s="51"/>
+      <c r="A36" s="53"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -3290,13 +3507,13 @@
         <v>50</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" ht="15.5">
-      <c r="A37" s="51"/>
+      <c r="A37" s="53"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
@@ -3306,13 +3523,13 @@
         <v>52</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" ht="15.5">
-      <c r="A38" s="51"/>
+      <c r="A38" s="53"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -3320,13 +3537,13 @@
         <v>53</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" ht="15.5">
-      <c r="A39" s="51"/>
+      <c r="A39" s="53"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -3334,13 +3551,13 @@
         <v>54</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" ht="15.5">
-      <c r="A40" s="51"/>
+      <c r="A40" s="53"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -3348,13 +3565,13 @@
         <v>55</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" ht="15.5">
-      <c r="A41" s="51"/>
+      <c r="A41" s="53"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
@@ -3364,13 +3581,13 @@
         <v>57</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8" ht="15.5">
-      <c r="A42" s="51"/>
+      <c r="A42" s="53"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -3378,13 +3595,13 @@
         <v>58</v>
       </c>
       <c r="F42" s="45" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:8" ht="15.5">
-      <c r="A43" s="51"/>
+      <c r="A43" s="53"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -3392,13 +3609,13 @@
         <v>59</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:8" ht="15.5">
-      <c r="A44" s="52"/>
+      <c r="A44" s="54"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -3406,7 +3623,7 @@
         <v>60</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="4"/>
@@ -3424,7 +3641,7 @@
         <v>62</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="4"/>
@@ -3438,7 +3655,7 @@
         <v>63</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="4"/>
@@ -3454,7 +3671,7 @@
         <v>65</v>
       </c>
       <c r="F47" s="45" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="4"/>
@@ -3468,7 +3685,7 @@
         <v>66</v>
       </c>
       <c r="F48" s="45" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="4"/>
@@ -3482,7 +3699,7 @@
         <v>67</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="4"/>
@@ -3496,7 +3713,7 @@
         <v>68</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="4"/>
@@ -3510,7 +3727,7 @@
         <v>69</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="4"/>
@@ -3526,7 +3743,7 @@
         <v>70</v>
       </c>
       <c r="F52" s="45" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="4"/>
@@ -3544,7 +3761,7 @@
         <v>72</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="4"/>
@@ -3558,7 +3775,7 @@
         <v>73</v>
       </c>
       <c r="F54" s="45" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="4"/>
@@ -3572,7 +3789,7 @@
         <v>74</v>
       </c>
       <c r="F55" s="45" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="4"/>
@@ -3586,7 +3803,7 @@
         <v>75</v>
       </c>
       <c r="F56" s="45" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="4"/>
@@ -3600,7 +3817,7 @@
         <v>76</v>
       </c>
       <c r="F57" s="45" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="4"/>
@@ -3614,7 +3831,7 @@
         <v>77</v>
       </c>
       <c r="F58" s="45" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="4"/>
@@ -3628,7 +3845,7 @@
         <v>78</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="4"/>
@@ -3642,7 +3859,7 @@
         <v>79</v>
       </c>
       <c r="F60" s="45" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="4"/>
@@ -3658,7 +3875,7 @@
         <v>80</v>
       </c>
       <c r="F61" s="45" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="4"/>
@@ -3674,7 +3891,7 @@
         <v>82</v>
       </c>
       <c r="F62" s="45" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="4"/>
@@ -3688,7 +3905,7 @@
         <v>83</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="4"/>
@@ -3702,7 +3919,7 @@
         <v>84</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="4"/>
@@ -3716,7 +3933,7 @@
         <v>85</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="4"/>
@@ -3730,7 +3947,7 @@
         <v>86</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="4"/>
@@ -3750,7 +3967,7 @@
         <v>87</v>
       </c>
       <c r="F67" s="45" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="4"/>
@@ -3766,7 +3983,7 @@
         <v>89</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="4"/>
@@ -3780,7 +3997,7 @@
         <v>90</v>
       </c>
       <c r="F69" s="45" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="4"/>
@@ -3794,7 +4011,7 @@
         <v>91</v>
       </c>
       <c r="F70" s="45" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="4"/>
@@ -3808,7 +4025,7 @@
         <v>92</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="4"/>
@@ -3822,7 +4039,7 @@
         <v>93</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="4"/>
@@ -3838,7 +4055,7 @@
         <v>94</v>
       </c>
       <c r="F73" s="45" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="4"/>
@@ -3854,7 +4071,7 @@
         <v>96</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="4"/>
@@ -3868,7 +4085,7 @@
         <v>97</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="4"/>
@@ -3882,7 +4099,7 @@
         <v>90</v>
       </c>
       <c r="F76" s="45" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="4"/>
@@ -3896,7 +4113,7 @@
         <v>98</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="4"/>
@@ -3910,7 +4127,7 @@
         <v>99</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="4"/>
@@ -3924,7 +4141,7 @@
         <v>100</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="4"/>
@@ -3938,7 +4155,7 @@
         <v>101</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="4"/>
@@ -3954,7 +4171,7 @@
         <v>102</v>
       </c>
       <c r="F81" s="45" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="4"/>
@@ -3972,7 +4189,7 @@
         <v>90</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="4"/>
@@ -3986,7 +4203,7 @@
         <v>98</v>
       </c>
       <c r="F83" s="45" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="4"/>
@@ -4000,7 +4217,7 @@
         <v>104</v>
       </c>
       <c r="F84" s="45" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G84" s="5"/>
       <c r="H84" s="4"/>
@@ -4016,7 +4233,7 @@
         <v>106</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="4"/>
@@ -4030,7 +4247,7 @@
         <v>107</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="4"/>
@@ -4044,7 +4261,7 @@
         <v>108</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="4"/>
@@ -4058,7 +4275,7 @@
         <v>109</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G88" s="5"/>
       <c r="H88" s="4"/>
@@ -4072,7 +4289,7 @@
         <v>110</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G89" s="5"/>
       <c r="H89" s="4"/>
@@ -4086,7 +4303,7 @@
         <v>111</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G90" s="5"/>
       <c r="H90" s="4"/>
@@ -4100,7 +4317,7 @@
         <v>112</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G91" s="5"/>
       <c r="H91" s="4"/>
@@ -4118,7 +4335,7 @@
         <v>114</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="4"/>
@@ -4132,7 +4349,7 @@
         <v>115</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G93" s="5"/>
       <c r="H93" s="4"/>
@@ -4146,7 +4363,7 @@
         <v>116</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="G94" s="5"/>
       <c r="H94" s="4"/>
@@ -4160,7 +4377,7 @@
         <v>108</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G95" s="5"/>
       <c r="H95" s="4"/>
@@ -4171,10 +4388,10 @@
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="49" t="s">
-        <v>117</v>
+        <v>683</v>
       </c>
       <c r="F96" s="49" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G96" s="5"/>
       <c r="H96" s="4"/>
@@ -4185,10 +4402,10 @@
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G97" s="5"/>
       <c r="H97" s="4"/>
@@ -4198,12 +4415,14 @@
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E98" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E98" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F98" s="5"/>
+      <c r="F98" s="5" t="s">
+        <v>684</v>
+      </c>
       <c r="G98" s="5"/>
       <c r="H98" s="4"/>
     </row>
@@ -4212,10 +4431,12 @@
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F99" s="5"/>
+      <c r="E99" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>685</v>
+      </c>
       <c r="G99" s="5"/>
       <c r="H99" s="4"/>
     </row>
@@ -4224,10 +4445,12 @@
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F100" s="5"/>
+      <c r="E100" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>686</v>
+      </c>
       <c r="G100" s="5"/>
       <c r="H100" s="4"/>
     </row>
@@ -4236,10 +4459,12 @@
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
-      <c r="E101" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F101" s="5"/>
+      <c r="E101" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>687</v>
+      </c>
       <c r="G101" s="5"/>
       <c r="H101" s="4"/>
     </row>
@@ -4248,10 +4473,12 @@
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
-      <c r="E102" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F102" s="5"/>
+      <c r="E102" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>688</v>
+      </c>
       <c r="G102" s="5"/>
       <c r="H102" s="4"/>
     </row>
@@ -4262,12 +4489,14 @@
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E103" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="E103" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F103" s="5"/>
+      <c r="F103" s="5" t="s">
+        <v>689</v>
+      </c>
       <c r="G103" s="5"/>
       <c r="H103" s="4"/>
     </row>
@@ -4276,10 +4505,12 @@
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
-      <c r="E104" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F104" s="5"/>
+      <c r="E104" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>690</v>
+      </c>
       <c r="G104" s="5"/>
       <c r="H104" s="4"/>
     </row>
@@ -4288,10 +4519,12 @@
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
-      <c r="E105" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F105" s="5"/>
+      <c r="E105" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>691</v>
+      </c>
       <c r="G105" s="5"/>
       <c r="H105" s="4"/>
     </row>
@@ -4300,10 +4533,12 @@
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
-      <c r="E106" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F106" s="5"/>
+      <c r="E106" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>692</v>
+      </c>
       <c r="G106" s="5"/>
       <c r="H106" s="4"/>
     </row>
@@ -4312,12 +4547,14 @@
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E107" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="E107" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F107" s="5"/>
+      <c r="F107" s="5" t="s">
+        <v>693</v>
+      </c>
       <c r="G107" s="5"/>
       <c r="H107" s="4"/>
     </row>
@@ -4326,10 +4563,12 @@
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
-      <c r="E108" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F108" s="5"/>
+      <c r="E108" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>694</v>
+      </c>
       <c r="G108" s="5"/>
       <c r="H108" s="4"/>
     </row>
@@ -4338,10 +4577,12 @@
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
-      <c r="E109" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F109" s="5"/>
+      <c r="E109" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>695</v>
+      </c>
       <c r="G109" s="5"/>
       <c r="H109" s="4"/>
     </row>
@@ -4350,10 +4591,12 @@
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
-      <c r="E110" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F110" s="5"/>
+      <c r="E110" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>696</v>
+      </c>
       <c r="G110" s="5"/>
       <c r="H110" s="4"/>
     </row>
@@ -4362,10 +4605,12 @@
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
-      <c r="E111" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F111" s="5"/>
+      <c r="E111" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>697</v>
+      </c>
       <c r="G111" s="5"/>
       <c r="H111" s="4"/>
     </row>
@@ -4374,10 +4619,12 @@
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
-      <c r="E112" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F112" s="5"/>
+      <c r="E112" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>698</v>
+      </c>
       <c r="G112" s="5"/>
       <c r="H112" s="4"/>
     </row>
@@ -4388,12 +4635,14 @@
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E113" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="E113" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F113" s="5"/>
+      <c r="F113" s="5" t="s">
+        <v>699</v>
+      </c>
       <c r="G113" s="5"/>
       <c r="H113" s="4"/>
     </row>
@@ -4402,10 +4651,12 @@
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
-      <c r="E114" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F114" s="5"/>
+      <c r="E114" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="F114" s="50" t="s">
+        <v>700</v>
+      </c>
       <c r="G114" s="5"/>
       <c r="H114" s="4"/>
     </row>
@@ -4414,10 +4665,12 @@
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
-      <c r="E115" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F115" s="5"/>
+      <c r="E115" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="F115" s="51" t="s">
+        <v>701</v>
+      </c>
       <c r="G115" s="5"/>
       <c r="H115" s="4"/>
     </row>
@@ -4426,12 +4679,14 @@
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E116" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="E116" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F116" s="5"/>
+      <c r="F116" s="5" t="s">
+        <v>702</v>
+      </c>
       <c r="G116" s="5"/>
       <c r="H116" s="4"/>
     </row>
@@ -4440,12 +4695,14 @@
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E117" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="E117" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F117" s="5"/>
+      <c r="F117" s="5" t="s">
+        <v>703</v>
+      </c>
       <c r="G117" s="5"/>
       <c r="H117" s="4"/>
     </row>
@@ -4457,39 +4714,45 @@
         <v>11</v>
       </c>
       <c r="C118" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="E118" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="E118" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F118" s="4"/>
+      <c r="F118" s="49" t="s">
+        <v>704</v>
+      </c>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
     </row>
-    <row r="119" spans="1:8" ht="15.5">
+    <row r="119" spans="1:8" ht="21">
       <c r="A119" s="11"/>
       <c r="B119" s="4"/>
       <c r="C119" s="10"/>
       <c r="D119" s="4"/>
-      <c r="E119" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F119" s="4"/>
+      <c r="E119" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="F119" s="48" t="s">
+        <v>705</v>
+      </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
     </row>
-    <row r="120" spans="1:8" ht="15.5">
+    <row r="120" spans="1:8" ht="62">
       <c r="A120" s="11"/>
       <c r="B120" s="4"/>
       <c r="C120" s="10"/>
       <c r="D120" s="4"/>
-      <c r="E120" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F120" s="4"/>
+      <c r="E120" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>706</v>
+      </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
     </row>
@@ -4498,28 +4761,32 @@
       <c r="B121" s="4"/>
       <c r="C121" s="12"/>
       <c r="D121" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E121" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="E121" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F121" s="4"/>
+      <c r="F121" s="49" t="s">
+        <v>707</v>
+      </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
     </row>
-    <row r="122" spans="1:8" ht="31">
+    <row r="122" spans="1:8" ht="31.5">
       <c r="A122" s="11"/>
       <c r="B122" s="4">
         <v>12</v>
       </c>
       <c r="C122" s="12"/>
       <c r="D122" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E122" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="E122" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F122" s="4"/>
+      <c r="F122" s="48" t="s">
+        <v>708</v>
+      </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
     </row>
@@ -4528,186 +4795,216 @@
       <c r="B123" s="4"/>
       <c r="C123" s="12"/>
       <c r="D123" s="14"/>
-      <c r="E123" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F123" s="4"/>
+      <c r="E123" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>709</v>
+      </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
     </row>
-    <row r="124" spans="1:8" ht="15.5">
+    <row r="124" spans="1:8" ht="46.5">
       <c r="A124" s="11"/>
       <c r="B124" s="4">
         <v>13</v>
       </c>
       <c r="C124" s="12"/>
       <c r="D124" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E124" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="E124" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F124" s="4"/>
+      <c r="F124" s="4" t="s">
+        <v>710</v>
+      </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
     </row>
-    <row r="125" spans="1:8" ht="15.5">
+    <row r="125" spans="1:8" ht="31">
       <c r="A125" s="11"/>
       <c r="B125" s="4"/>
       <c r="C125" s="12"/>
       <c r="D125" s="4"/>
-      <c r="E125" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F125" s="4"/>
+      <c r="E125" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>711</v>
+      </c>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="1:8" ht="15.5">
+    <row r="126" spans="1:8" ht="46.5">
       <c r="A126" s="11"/>
       <c r="B126" s="4"/>
       <c r="C126" s="12"/>
       <c r="D126" s="4"/>
-      <c r="E126" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F126" s="4"/>
+      <c r="E126" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>712</v>
+      </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
     </row>
-    <row r="127" spans="1:8" ht="15.5">
+    <row r="127" spans="1:8" ht="46.5">
       <c r="A127" s="11"/>
       <c r="B127" s="4"/>
       <c r="C127" s="12"/>
       <c r="D127" s="4"/>
-      <c r="E127" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F127" s="4"/>
+      <c r="E127" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>713</v>
+      </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
     </row>
-    <row r="128" spans="1:8" ht="15.5">
+    <row r="128" spans="1:8" ht="62">
       <c r="A128" s="11"/>
       <c r="B128" s="4"/>
       <c r="C128" s="12"/>
       <c r="D128" s="4"/>
-      <c r="E128" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F128" s="4"/>
+      <c r="E128" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>714</v>
+      </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
     </row>
-    <row r="129" spans="1:8" ht="15.5">
+    <row r="129" spans="1:8" ht="46.5">
       <c r="A129" s="11"/>
       <c r="B129" s="4"/>
       <c r="C129" s="12"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F129" s="4"/>
+        <v>160</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>715</v>
+      </c>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
     </row>
-    <row r="130" spans="1:8" ht="31">
+    <row r="130" spans="1:8" ht="31.5">
       <c r="A130" s="11"/>
       <c r="B130" s="4"/>
       <c r="C130" s="12"/>
       <c r="D130" s="4"/>
-      <c r="E130" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F130" s="4"/>
+      <c r="E130" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="F130" s="48" t="s">
+        <v>716</v>
+      </c>
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
     </row>
-    <row r="131" spans="1:8" ht="31">
+    <row r="131" spans="1:8" ht="62">
       <c r="A131" s="11"/>
       <c r="B131" s="4">
         <v>14</v>
       </c>
       <c r="C131" s="12"/>
       <c r="D131" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E131" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="E131" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F131" s="4"/>
+      <c r="F131" s="4" t="s">
+        <v>717</v>
+      </c>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
     </row>
-    <row r="132" spans="1:8" ht="15.5">
+    <row r="132" spans="1:8" ht="31">
       <c r="A132" s="11"/>
       <c r="B132" s="4"/>
       <c r="C132" s="12"/>
       <c r="D132" s="4"/>
-      <c r="E132" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F132" s="4"/>
+      <c r="E132" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>718</v>
+      </c>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
     </row>
-    <row r="133" spans="1:8" ht="15.5">
+    <row r="133" spans="1:8" ht="31">
       <c r="A133" s="11"/>
       <c r="B133" s="4"/>
       <c r="C133" s="12"/>
       <c r="D133" s="4"/>
-      <c r="E133" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F133" s="4"/>
+      <c r="E133" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>719</v>
+      </c>
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
     </row>
-    <row r="134" spans="1:8" ht="77.5">
+    <row r="134" spans="1:8" ht="84">
       <c r="A134" s="11"/>
       <c r="B134" s="4"/>
       <c r="C134" s="12"/>
       <c r="D134" s="4"/>
-      <c r="E134" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F134" s="4"/>
+      <c r="E134" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="F134" s="48" t="s">
+        <v>720</v>
+      </c>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
     </row>
-    <row r="135" spans="1:8" ht="15.5">
+    <row r="135" spans="1:8" ht="25">
       <c r="A135" s="11"/>
       <c r="B135" s="4"/>
       <c r="C135" s="12"/>
       <c r="D135" s="4"/>
-      <c r="E135" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F135" s="4"/>
+      <c r="E135" s="49" t="s">
+        <v>721</v>
+      </c>
+      <c r="F135" s="58" t="s">
+        <v>722</v>
+      </c>
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
     </row>
-    <row r="136" spans="1:8" ht="15.5">
+    <row r="136" spans="1:8" ht="21">
       <c r="A136" s="11"/>
       <c r="B136" s="4"/>
       <c r="C136" s="12"/>
       <c r="D136" s="4"/>
-      <c r="E136" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F136" s="4"/>
+      <c r="E136" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="F136" s="48" t="s">
+        <v>723</v>
+      </c>
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
     </row>
-    <row r="137" spans="1:8" ht="15.5">
+    <row r="137" spans="1:8" ht="50">
       <c r="A137" s="11"/>
       <c r="B137" s="4"/>
       <c r="C137" s="12"/>
       <c r="D137" s="4"/>
-      <c r="E137" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F137" s="4"/>
+      <c r="E137" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="F137" s="59" t="s">
+        <v>724</v>
+      </c>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
     </row>
@@ -4718,26 +5015,49 @@
       </c>
       <c r="C138" s="12"/>
       <c r="D138" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F138" s="4"/>
+        <v>169</v>
+      </c>
+      <c r="E138" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="F138" s="60" t="s">
+        <v>725</v>
+      </c>
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
     </row>
     <row r="139" spans="1:8" ht="12.5">
-      <c r="A139" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="B139" s="54"/>
-      <c r="C139" s="54"/>
-      <c r="D139" s="54"/>
+      <c r="A139" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="B139" s="56"/>
+      <c r="C139" s="56"/>
+      <c r="D139" s="56"/>
       <c r="E139" s="15"/>
-      <c r="F139" s="15"/>
+      <c r="F139" s="60"/>
       <c r="G139" s="15"/>
       <c r="H139" s="15"/>
+    </row>
+    <row r="140" spans="1:8" ht="15.75" customHeight="1">
+      <c r="F140" s="60"/>
+    </row>
+    <row r="142" spans="1:8" ht="15.75" customHeight="1">
+      <c r="F142" s="46"/>
+    </row>
+    <row r="144" spans="1:8" ht="15.75" customHeight="1">
+      <c r="F144" s="46"/>
+    </row>
+    <row r="146" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F146" s="46"/>
+    </row>
+    <row r="148" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F148" s="46"/>
+    </row>
+    <row r="150" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F150" s="46"/>
+    </row>
+    <row r="152" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F152" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4769,10 +5089,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>3</v>
@@ -4781,7 +5101,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>6</v>
@@ -4798,10 +5118,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -4813,7 +5133,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -4824,7 +5144,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -4835,7 +5155,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4845,10 +5165,10 @@
       <c r="A6" s="19"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4859,7 +5179,7 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -4870,7 +5190,7 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -4881,7 +5201,7 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -4891,10 +5211,10 @@
       <c r="A10" s="19"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -4905,7 +5225,7 @@
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -4916,7 +5236,7 @@
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -4927,7 +5247,7 @@
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -4939,10 +5259,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -4953,7 +5273,7 @@
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -4964,7 +5284,7 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -4975,7 +5295,7 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -4986,7 +5306,7 @@
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -4996,10 +5316,10 @@
       <c r="A19" s="19"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -5010,7 +5330,7 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -5021,7 +5341,7 @@
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -5032,7 +5352,7 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -5043,7 +5363,7 @@
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -5053,10 +5373,10 @@
       <c r="A24" s="19"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -5068,7 +5388,7 @@
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -5080,7 +5400,7 @@
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -5091,7 +5411,7 @@
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -5103,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -5117,7 +5437,7 @@
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -5128,7 +5448,7 @@
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -5139,7 +5459,7 @@
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -5150,7 +5470,7 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -5161,7 +5481,7 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -5171,10 +5491,10 @@
       <c r="A34" s="19"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -5185,7 +5505,7 @@
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -5196,7 +5516,7 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -5206,10 +5526,10 @@
       <c r="A37" s="19"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -5220,7 +5540,7 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -5231,7 +5551,7 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -5243,10 +5563,10 @@
         <v>4</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -5257,7 +5577,7 @@
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -5268,7 +5588,7 @@
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -5279,7 +5599,7 @@
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -5290,7 +5610,7 @@
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -5300,10 +5620,10 @@
       <c r="A45" s="19"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -5314,7 +5634,7 @@
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -5324,10 +5644,10 @@
       <c r="A47" s="19"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -5338,7 +5658,7 @@
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -5349,7 +5669,7 @@
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -5360,7 +5680,7 @@
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -5371,7 +5691,7 @@
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -5383,10 +5703,10 @@
         <v>5</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -5397,7 +5717,7 @@
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -5408,7 +5728,7 @@
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -5419,7 +5739,7 @@
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -5430,7 +5750,7 @@
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -5440,10 +5760,10 @@
       <c r="A57" s="19"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -5454,7 +5774,7 @@
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -5465,7 +5785,7 @@
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -5476,7 +5796,7 @@
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -5490,10 +5810,10 @@
         <v>6</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -5504,7 +5824,7 @@
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -5515,7 +5835,7 @@
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -5526,7 +5846,7 @@
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -5537,7 +5857,7 @@
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -5547,10 +5867,10 @@
       <c r="A66" s="24"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
@@ -5561,7 +5881,7 @@
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -5572,7 +5892,7 @@
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -5583,7 +5903,7 @@
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -5594,7 +5914,7 @@
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
@@ -5606,10 +5926,10 @@
         <v>7</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
@@ -5620,7 +5940,7 @@
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
@@ -5631,7 +5951,7 @@
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
@@ -5641,10 +5961,10 @@
       <c r="A74" s="24"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -5655,7 +5975,7 @@
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
@@ -5666,7 +5986,7 @@
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -5677,7 +5997,7 @@
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -5688,7 +6008,7 @@
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
@@ -5700,10 +6020,10 @@
         <v>8</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E79" s="27"/>
       <c r="F79" s="27"/>
@@ -5714,7 +6034,7 @@
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -5725,7 +6045,7 @@
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
@@ -5735,10 +6055,10 @@
       <c r="A82" s="24"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
@@ -5749,7 +6069,7 @@
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
@@ -5760,7 +6080,7 @@
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -5771,7 +6091,7 @@
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
@@ -5782,7 +6102,7 @@
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -5793,7 +6113,7 @@
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -5803,10 +6123,10 @@
       <c r="A88" s="24"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
@@ -5817,7 +6137,7 @@
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -5828,7 +6148,7 @@
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
@@ -5840,10 +6160,10 @@
         <v>9</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -5854,7 +6174,7 @@
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -5865,7 +6185,7 @@
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -5875,10 +6195,10 @@
       <c r="A94" s="24"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
@@ -5889,7 +6209,7 @@
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
@@ -5899,10 +6219,10 @@
       <c r="A96" s="24"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -5913,7 +6233,7 @@
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -5924,7 +6244,7 @@
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
@@ -5935,7 +6255,7 @@
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -5946,7 +6266,7 @@
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -5957,7 +6277,7 @@
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="28" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -5969,10 +6289,10 @@
         <v>10</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -5983,7 +6303,7 @@
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
@@ -5994,7 +6314,7 @@
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -6005,7 +6325,7 @@
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
@@ -6016,7 +6336,7 @@
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
@@ -6026,10 +6346,10 @@
       <c r="A107" s="24"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -6040,7 +6360,7 @@
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -6051,7 +6371,7 @@
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
@@ -6062,7 +6382,7 @@
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -6073,7 +6393,7 @@
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -6087,10 +6407,10 @@
         <v>11</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -6101,7 +6421,7 @@
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -6112,7 +6432,7 @@
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -6122,10 +6442,10 @@
       <c r="A115" s="29"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -6136,7 +6456,7 @@
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -6147,7 +6467,7 @@
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -6157,10 +6477,10 @@
       <c r="A118" s="29"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
@@ -6171,7 +6491,7 @@
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -6181,10 +6501,10 @@
       <c r="A120" s="29"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
@@ -6195,7 +6515,7 @@
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -6206,7 +6526,7 @@
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -6218,10 +6538,10 @@
         <v>12</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -6232,7 +6552,7 @@
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -6243,7 +6563,7 @@
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -6254,7 +6574,7 @@
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
@@ -6264,10 +6584,10 @@
       <c r="A127" s="29"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
@@ -6278,7 +6598,7 @@
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
@@ -6289,7 +6609,7 @@
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
@@ -6300,7 +6620,7 @@
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
@@ -6310,10 +6630,10 @@
       <c r="A131" s="29"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
@@ -6324,7 +6644,7 @@
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
@@ -6334,10 +6654,10 @@
       <c r="A133" s="29"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
@@ -6348,7 +6668,7 @@
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
@@ -6359,7 +6679,7 @@
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
@@ -6370,7 +6690,7 @@
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
@@ -6382,10 +6702,10 @@
         <v>13</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
@@ -6396,7 +6716,7 @@
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
@@ -6407,7 +6727,7 @@
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
@@ -6418,7 +6738,7 @@
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
@@ -6428,10 +6748,10 @@
       <c r="A141" s="29"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
@@ -6442,7 +6762,7 @@
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
@@ -6453,7 +6773,7 @@
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
@@ -6464,7 +6784,7 @@
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
@@ -6474,10 +6794,10 @@
       <c r="A145" s="29"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
@@ -6488,7 +6808,7 @@
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
@@ -6499,7 +6819,7 @@
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
@@ -6511,10 +6831,10 @@
         <v>14</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
@@ -6525,7 +6845,7 @@
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
@@ -6536,7 +6856,7 @@
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
@@ -6546,10 +6866,10 @@
       <c r="A151" s="29"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
@@ -6560,7 +6880,7 @@
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
@@ -6578,10 +6898,10 @@
       <c r="A154" s="29"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -6592,7 +6912,7 @@
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
@@ -6603,7 +6923,7 @@
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
@@ -6615,10 +6935,10 @@
         <v>15</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
@@ -6629,7 +6949,7 @@
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
@@ -6640,7 +6960,7 @@
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
@@ -6651,7 +6971,7 @@
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
@@ -6661,10 +6981,10 @@
       <c r="A161" s="29"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
@@ -6675,7 +6995,7 @@
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
@@ -6686,7 +7006,7 @@
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
@@ -6697,7 +7017,7 @@
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
@@ -6708,7 +7028,7 @@
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
@@ -6719,7 +7039,7 @@
       <c r="B166" s="27"/>
       <c r="C166" s="27"/>
       <c r="D166" s="27" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E166" s="27"/>
       <c r="F166" s="27"/>
@@ -6733,10 +7053,10 @@
         <v>16</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
@@ -6747,7 +7067,7 @@
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
@@ -6758,7 +7078,7 @@
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
@@ -6769,7 +7089,7 @@
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
@@ -6779,10 +7099,10 @@
       <c r="A171" s="31"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
@@ -6793,7 +7113,7 @@
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
@@ -6804,7 +7124,7 @@
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
@@ -6814,10 +7134,10 @@
       <c r="A174" s="31"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
@@ -6828,7 +7148,7 @@
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
@@ -6839,7 +7159,7 @@
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
@@ -6851,10 +7171,10 @@
         <v>17</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
@@ -6865,7 +7185,7 @@
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
@@ -6876,7 +7196,7 @@
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
@@ -6886,10 +7206,10 @@
       <c r="A180" s="31"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
@@ -6900,7 +7220,7 @@
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
@@ -6910,10 +7230,10 @@
       <c r="A182" s="31"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
@@ -6924,7 +7244,7 @@
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
@@ -6935,7 +7255,7 @@
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
@@ -6946,7 +7266,7 @@
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
@@ -6957,7 +7277,7 @@
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
@@ -6969,10 +7289,10 @@
         <v>18</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
@@ -6983,7 +7303,7 @@
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
@@ -6994,7 +7314,7 @@
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
@@ -7004,10 +7324,10 @@
       <c r="A190" s="31"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
@@ -7018,7 +7338,7 @@
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
@@ -7029,7 +7349,7 @@
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
@@ -7039,10 +7359,10 @@
       <c r="A193" s="31"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
@@ -7053,7 +7373,7 @@
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
@@ -7064,7 +7384,7 @@
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
@@ -7076,10 +7396,10 @@
         <v>19</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
@@ -7090,7 +7410,7 @@
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
@@ -7101,7 +7421,7 @@
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
@@ -7111,10 +7431,10 @@
       <c r="A199" s="31"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
@@ -7125,7 +7445,7 @@
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
@@ -7136,7 +7456,7 @@
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
@@ -7146,10 +7466,10 @@
       <c r="A202" s="31"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
@@ -7160,7 +7480,7 @@
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
@@ -7171,7 +7491,7 @@
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
       <c r="D204" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
@@ -7183,10 +7503,10 @@
         <v>20</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
@@ -7197,7 +7517,7 @@
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
       <c r="D206" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E206" s="4"/>
       <c r="F206" s="4"/>
@@ -7208,7 +7528,7 @@
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
       <c r="D207" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
@@ -7219,7 +7539,7 @@
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
       <c r="D208" s="32" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E208" s="32"/>
       <c r="F208" s="4"/>
@@ -7229,10 +7549,10 @@
       <c r="A209" s="31"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E209" s="4"/>
       <c r="F209" s="4"/>
@@ -7243,7 +7563,7 @@
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
       <c r="D210" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
@@ -7254,7 +7574,7 @@
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
@@ -7268,10 +7588,10 @@
         <v>21</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
@@ -7282,7 +7602,7 @@
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
@@ -7293,7 +7613,7 @@
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
       <c r="D214" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
@@ -7303,10 +7623,10 @@
       <c r="A215" s="33"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
@@ -7317,7 +7637,7 @@
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
@@ -7328,7 +7648,7 @@
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
@@ -7338,10 +7658,10 @@
       <c r="A218" s="33"/>
       <c r="B218" s="12"/>
       <c r="C218" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
@@ -7352,7 +7672,7 @@
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
@@ -7363,7 +7683,7 @@
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
@@ -7374,7 +7694,7 @@
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
@@ -7385,7 +7705,7 @@
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
@@ -7397,10 +7717,10 @@
         <v>22</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E223" s="4"/>
       <c r="F223" s="4"/>
@@ -7411,7 +7731,7 @@
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
       <c r="D224" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E224" s="4"/>
       <c r="F224" s="4"/>
@@ -7422,7 +7742,7 @@
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
@@ -7433,7 +7753,7 @@
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
       <c r="D226" s="32" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E226" s="32"/>
       <c r="F226" s="32"/>
@@ -7443,10 +7763,10 @@
       <c r="A227" s="33"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
@@ -7457,7 +7777,7 @@
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
@@ -7468,7 +7788,7 @@
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E229" s="4"/>
       <c r="F229" s="4"/>
@@ -7479,7 +7799,7 @@
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E230" s="4"/>
       <c r="F230" s="4"/>
@@ -7490,7 +7810,7 @@
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
@@ -7501,7 +7821,7 @@
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
@@ -7513,10 +7833,10 @@
         <v>23</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E233" s="4"/>
       <c r="F233" s="4"/>
@@ -7527,7 +7847,7 @@
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
@@ -7538,7 +7858,7 @@
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E235" s="4"/>
       <c r="F235" s="4"/>
@@ -7549,7 +7869,7 @@
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
@@ -7560,7 +7880,7 @@
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
@@ -7570,10 +7890,10 @@
       <c r="A238" s="33"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
@@ -7584,7 +7904,7 @@
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E239" s="4"/>
       <c r="F239" s="4"/>
@@ -7595,7 +7915,7 @@
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
@@ -7606,7 +7926,7 @@
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
@@ -7618,10 +7938,10 @@
         <v>24</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
@@ -7632,7 +7952,7 @@
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
       <c r="D243" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
@@ -7643,7 +7963,7 @@
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
       <c r="D244" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E244" s="4"/>
       <c r="F244" s="4"/>
@@ -7653,10 +7973,10 @@
       <c r="A245" s="33"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
@@ -7667,7 +7987,7 @@
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
@@ -7678,7 +7998,7 @@
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
       <c r="D247" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
@@ -7690,10 +8010,10 @@
         <v>25</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
@@ -7704,7 +8024,7 @@
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
       <c r="D249" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
@@ -7715,7 +8035,7 @@
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
       <c r="D250" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
@@ -7726,7 +8046,7 @@
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
       <c r="D251" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E251" s="4"/>
       <c r="F251" s="4"/>
@@ -7736,10 +8056,10 @@
       <c r="A252" s="33"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
@@ -7750,7 +8070,7 @@
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
       <c r="D253" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E253" s="4"/>
       <c r="F253" s="4"/>
@@ -7761,7 +8081,7 @@
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
       <c r="D254" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E254" s="4"/>
       <c r="F254" s="4"/>
@@ -7775,10 +8095,10 @@
         <v>26</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
@@ -7789,7 +8109,7 @@
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
       <c r="D256" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
@@ -7800,7 +8120,7 @@
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
       <c r="D257" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E257" s="4"/>
       <c r="F257" s="4"/>
@@ -7811,7 +8131,7 @@
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
       <c r="D258" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
@@ -7821,10 +8141,10 @@
       <c r="A259" s="34"/>
       <c r="B259" s="12"/>
       <c r="C259" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
@@ -7835,7 +8155,7 @@
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
       <c r="D260" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
@@ -7846,7 +8166,7 @@
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
       <c r="D261" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
@@ -7857,7 +8177,7 @@
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
       <c r="D262" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
@@ -7869,10 +8189,10 @@
         <v>26</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
@@ -7883,7 +8203,7 @@
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
       <c r="D264" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E264" s="4"/>
       <c r="F264" s="4"/>
@@ -7894,7 +8214,7 @@
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
@@ -7904,10 +8224,10 @@
       <c r="A266" s="34"/>
       <c r="B266" s="12"/>
       <c r="C266" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E266" s="4"/>
       <c r="F266" s="4"/>
@@ -7918,7 +8238,7 @@
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
       <c r="D267" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E267" s="4"/>
       <c r="F267" s="4"/>
@@ -7929,7 +8249,7 @@
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
       <c r="D268" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E268" s="4"/>
       <c r="F268" s="4"/>
@@ -7940,7 +8260,7 @@
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
       <c r="D269" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
@@ -7952,10 +8272,10 @@
         <v>27</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
@@ -7966,7 +8286,7 @@
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
       <c r="D271" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
@@ -7977,7 +8297,7 @@
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
       <c r="D272" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E272" s="4"/>
       <c r="F272" s="4"/>
@@ -7988,7 +8308,7 @@
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
       <c r="D273" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
@@ -7998,10 +8318,10 @@
       <c r="A274" s="34"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
@@ -8012,7 +8332,7 @@
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
       <c r="D275" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
@@ -8023,7 +8343,7 @@
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
       <c r="D276" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
@@ -8034,7 +8354,7 @@
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
       <c r="D277" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
@@ -8046,10 +8366,10 @@
         <v>28</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
@@ -8060,7 +8380,7 @@
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
       <c r="D279" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E279" s="4"/>
       <c r="F279" s="4"/>
@@ -8071,7 +8391,7 @@
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
       <c r="D280" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
@@ -8082,7 +8402,7 @@
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
       <c r="D281" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E281" s="4"/>
       <c r="F281" s="4"/>
@@ -8093,7 +8413,7 @@
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
       <c r="D282" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
@@ -8103,10 +8423,10 @@
       <c r="A283" s="34"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E283" s="4"/>
       <c r="F283" s="4"/>
@@ -8117,7 +8437,7 @@
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
       <c r="D284" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E284" s="4"/>
       <c r="F284" s="4"/>
@@ -8128,7 +8448,7 @@
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
       <c r="D285" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E285" s="4"/>
       <c r="F285" s="4"/>
@@ -8139,7 +8459,7 @@
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
       <c r="D286" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
@@ -8151,10 +8471,10 @@
         <v>29</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E287" s="4"/>
       <c r="F287" s="4"/>
@@ -8165,7 +8485,7 @@
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
       <c r="D288" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E288" s="4"/>
       <c r="F288" s="4"/>
@@ -8176,7 +8496,7 @@
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
       <c r="D289" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
@@ -8186,10 +8506,10 @@
       <c r="A290" s="34"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E290" s="4"/>
       <c r="F290" s="4"/>
@@ -8200,7 +8520,7 @@
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
       <c r="D291" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E291" s="4"/>
       <c r="F291" s="4"/>
@@ -8212,10 +8532,10 @@
         <v>30</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
@@ -8226,7 +8546,7 @@
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
       <c r="D293" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E293" s="4"/>
       <c r="F293" s="4"/>
@@ -8236,10 +8556,10 @@
       <c r="A294" s="34"/>
       <c r="B294" s="4"/>
       <c r="C294" s="27" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D294" s="27" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E294" s="4"/>
       <c r="F294" s="4"/>
@@ -8249,10 +8569,10 @@
       <c r="A295" s="34"/>
       <c r="B295" s="4"/>
       <c r="C295" s="27" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D295" s="27" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
@@ -8263,7 +8583,7 @@
       <c r="B296" s="4"/>
       <c r="C296" s="27"/>
       <c r="D296" s="27" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
@@ -8274,7 +8594,7 @@
       <c r="B297" s="4"/>
       <c r="C297" s="27"/>
       <c r="D297" s="27" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
@@ -8285,7 +8605,7 @@
       <c r="B298" s="4"/>
       <c r="C298" s="27"/>
       <c r="D298" s="27" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E298" s="4"/>
       <c r="F298" s="4"/>
@@ -8299,10 +8619,10 @@
         <v>31</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E299" s="4"/>
       <c r="F299" s="4"/>
@@ -8313,7 +8633,7 @@
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
       <c r="D300" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E300" s="4"/>
       <c r="F300" s="4"/>
@@ -8324,7 +8644,7 @@
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
       <c r="D301" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E301" s="4"/>
       <c r="F301" s="4"/>
@@ -8335,7 +8655,7 @@
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
       <c r="D302" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E302" s="4"/>
       <c r="F302" s="4"/>
@@ -8346,7 +8666,7 @@
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
       <c r="D303" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E303" s="4"/>
       <c r="F303" s="4"/>
@@ -8357,7 +8677,7 @@
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
       <c r="D304" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E304" s="4"/>
       <c r="F304" s="4"/>
@@ -8367,10 +8687,10 @@
       <c r="A305" s="35"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E305" s="4"/>
       <c r="F305" s="4"/>
@@ -8381,7 +8701,7 @@
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
       <c r="D306" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
@@ -8392,7 +8712,7 @@
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
       <c r="D307" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G307" s="4"/>
     </row>
@@ -8402,10 +8722,10 @@
         <v>32</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E308" s="4"/>
       <c r="F308" s="4"/>
@@ -8416,7 +8736,7 @@
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
       <c r="D309" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E309" s="4"/>
       <c r="F309" s="4"/>
@@ -8427,7 +8747,7 @@
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
       <c r="D310" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
@@ -8438,7 +8758,7 @@
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
       <c r="D311" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
@@ -8449,7 +8769,7 @@
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
       <c r="D312" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E312" s="4"/>
       <c r="F312" s="4"/>
@@ -8460,7 +8780,7 @@
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
       <c r="D313" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E313" s="4"/>
       <c r="F313" s="4"/>
@@ -8470,10 +8790,10 @@
       <c r="A314" s="35"/>
       <c r="B314" s="12"/>
       <c r="C314" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E314" s="4"/>
       <c r="F314" s="4"/>
@@ -8484,7 +8804,7 @@
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
       <c r="D315" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
@@ -8495,7 +8815,7 @@
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
       <c r="D316" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E316" s="4"/>
       <c r="F316" s="4"/>
@@ -8505,10 +8825,10 @@
       <c r="A317" s="35"/>
       <c r="B317" s="12"/>
       <c r="C317" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E317" s="4"/>
       <c r="F317" s="4"/>
@@ -8519,7 +8839,7 @@
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
       <c r="D318" s="4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
@@ -8530,7 +8850,7 @@
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
       <c r="D319" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E319" s="4"/>
       <c r="F319" s="4"/>
@@ -8542,10 +8862,10 @@
         <v>33</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
@@ -8556,7 +8876,7 @@
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
       <c r="D321" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
@@ -8567,7 +8887,7 @@
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
       <c r="D322" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
@@ -8578,7 +8898,7 @@
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
       <c r="D323" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
@@ -8589,7 +8909,7 @@
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
       <c r="D324" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
@@ -8599,10 +8919,10 @@
       <c r="A325" s="35"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E325" s="4"/>
       <c r="F325" s="4"/>
@@ -8613,7 +8933,7 @@
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
       <c r="D326" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E326" s="4"/>
       <c r="F326" s="4"/>
@@ -8624,7 +8944,7 @@
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E327" s="4"/>
       <c r="F327" s="4"/>
@@ -8635,7 +8955,7 @@
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E328" s="4"/>
       <c r="F328" s="4"/>
@@ -8647,10 +8967,10 @@
         <v>34</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E329" s="4"/>
       <c r="F329" s="4"/>
@@ -8661,7 +8981,7 @@
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
       <c r="D330" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E330" s="4"/>
       <c r="F330" s="4"/>
@@ -8672,7 +8992,7 @@
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
       <c r="D331" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E331" s="4"/>
       <c r="F331" s="4"/>
@@ -8683,7 +9003,7 @@
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
       <c r="D332" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E332" s="4"/>
       <c r="F332" s="4"/>
@@ -8694,7 +9014,7 @@
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
       <c r="D333" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E333" s="4"/>
       <c r="F333" s="4"/>
@@ -8706,7 +9026,7 @@
         <v>35</v>
       </c>
       <c r="C334" s="27" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D334" s="27"/>
       <c r="E334" s="4"/>
